--- a/webcrawler/data/5_servents.xlsx
+++ b/webcrawler/data/5_servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5079,7 +5079,11 @@
           <t>瑪麗·安託瓦內特〔Alter〕</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>瑪莉．安東尼〔Alter〕</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5103,7 +5107,11 @@
           <t>巖窟王　基督山</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>巖窟王　基督山</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5314,7 +5322,11 @@
           <t>ロウヒ</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>婁希</t>
+        </is>
+      </c>
       <c r="F176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -5656,6 +5668,26 @@
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>459</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ソロモン</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
